--- a/Statystyki_2018/Template/oglk_.xlsx
+++ b/Statystyki_2018/Template/oglk_.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Nazwisko i imię sędziego</t>
   </si>
@@ -224,97 +224,103 @@
     <t>Zaległość</t>
   </si>
   <si>
+    <t>do 3 miesięcy</t>
+  </si>
+  <si>
+    <t>c4w6</t>
+  </si>
+  <si>
+    <t>c5w6</t>
+  </si>
+  <si>
+    <t>c6w6</t>
+  </si>
+  <si>
     <t>3-6 miesięcy</t>
   </si>
   <si>
-    <t>c4w6</t>
-  </si>
-  <si>
-    <t>c5w6</t>
-  </si>
-  <si>
-    <t>c6w6</t>
+    <t>c5w7</t>
+  </si>
+  <si>
+    <t>c6w7</t>
+  </si>
+  <si>
+    <t>c7 w7</t>
+  </si>
+  <si>
+    <t>c8w7</t>
+  </si>
+  <si>
+    <t>c13w7</t>
+  </si>
+  <si>
+    <t>c16w7t</t>
   </si>
   <si>
     <t>6-12 miesięcy</t>
   </si>
   <si>
-    <t>c5w7</t>
-  </si>
-  <si>
-    <t>c6w7</t>
-  </si>
-  <si>
-    <t>c7 w7</t>
-  </si>
-  <si>
-    <t>c8w7</t>
-  </si>
-  <si>
-    <t>c13w7</t>
-  </si>
-  <si>
-    <t>c16w7t</t>
+    <t>sierpien</t>
+  </si>
+  <si>
+    <t>w8c3</t>
+  </si>
+  <si>
+    <t>c5w8</t>
+  </si>
+  <si>
+    <t>c10w8</t>
   </si>
   <si>
     <t>12-24 miesięcy (do 2 lat)</t>
   </si>
   <si>
-    <t>sierpien</t>
-  </si>
-  <si>
-    <t>w8c3</t>
-  </si>
-  <si>
-    <t>c5w8</t>
-  </si>
-  <si>
-    <t>c10w8</t>
+    <t>c9 w1</t>
+  </si>
+  <si>
+    <t>c3 w9</t>
+  </si>
+  <si>
+    <t>c4 w9</t>
+  </si>
+  <si>
+    <t>c6 w9</t>
   </si>
   <si>
     <t>24-36 miesięcy (2-3 lat)</t>
   </si>
   <si>
-    <t>c9 w1</t>
-  </si>
-  <si>
-    <t>c3 w9</t>
-  </si>
-  <si>
-    <t>c4 w9</t>
-  </si>
-  <si>
-    <t>c6 w9</t>
+    <t>c3w10</t>
+  </si>
+  <si>
+    <t>c4w10</t>
+  </si>
+  <si>
+    <t>c5w10</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>36-60 miesięcy (3-5 lat)</t>
   </si>
   <si>
-    <t>c3w10</t>
-  </si>
-  <si>
-    <t>c4w10</t>
-  </si>
-  <si>
-    <t>c5w10</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>c4w11</t>
+  </si>
+  <si>
+    <t>c6w11</t>
+  </si>
+  <si>
+    <t>17,7</t>
+  </si>
+  <si>
+    <t>123,324</t>
   </si>
   <si>
     <t>powyżej 60 miesięcy (powyżej 5 lat)</t>
   </si>
   <si>
-    <t>c4w11</t>
-  </si>
-  <si>
-    <t>c6w11</t>
-  </si>
-  <si>
-    <t>17,7</t>
-  </si>
-  <si>
-    <t>123,324</t>
+    <t>16,7</t>
   </si>
   <si>
     <t>Ewidencja spraw odroczonych</t>
@@ -614,7 +620,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:V29"/>
+  <dimension ref="A3:V30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
@@ -2188,7 +2194,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="23" t="s">
         <v>93</v>
       </c>
@@ -2243,6 +2249,64 @@
       </c>
       <c r="V29" s="23" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="27"/>
+      <c r="B30" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="U30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="V30" s="23" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2274,13 +2338,14 @@
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A24:A30"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
     <mergeCell ref="G19"/>
     <mergeCell ref="H19"/>
     <mergeCell ref="I19"/>
@@ -2457,6 +2522,22 @@
     <mergeCell ref="T29"/>
     <mergeCell ref="U29"/>
     <mergeCell ref="V29"/>
+    <mergeCell ref="G30"/>
+    <mergeCell ref="H30"/>
+    <mergeCell ref="I30"/>
+    <mergeCell ref="J30"/>
+    <mergeCell ref="K30"/>
+    <mergeCell ref="L30"/>
+    <mergeCell ref="M30"/>
+    <mergeCell ref="N30"/>
+    <mergeCell ref="O30"/>
+    <mergeCell ref="P30"/>
+    <mergeCell ref="Q30"/>
+    <mergeCell ref="R30"/>
+    <mergeCell ref="S30"/>
+    <mergeCell ref="T30"/>
+    <mergeCell ref="U30"/>
+    <mergeCell ref="V30"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2488,7 +2569,7 @@
   <sheetData>
     <row r="3" ht="21.7">
       <c r="A3" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -2497,39 +2578,39 @@
     <row r="4" ht="15.8"/>
     <row r="5" ht="15.8">
       <c r="A5" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" ht="15.8">
       <c r="A6" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="15.8">
       <c r="A7" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7" s="15">
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>35</v>
@@ -2551,7 +2632,7 @@
     </row>
     <row r="9" ht="15.8">
       <c r="A9" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B9" s="15">
         <v>4</v>
@@ -2579,7 +2660,7 @@
     </row>
     <row r="11" ht="15.8">
       <c r="A11" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="15">
         <v>6</v>
@@ -2593,7 +2674,7 @@
     </row>
     <row r="12" ht="15.8">
       <c r="A12" s="16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" s="15">
         <v>7</v>
@@ -2607,7 +2688,7 @@
     </row>
     <row r="13" ht="15.8">
       <c r="A13" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B13" s="15">
         <v>8</v>
@@ -2649,7 +2730,7 @@
     </row>
     <row r="16" ht="15.8">
       <c r="A16" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" s="18">
         <v>11</v>
